--- a/Exercícios-aula3/1.0-exercicio-filmes/1.0-exercicio-filmes-fisico.xlsx
+++ b/Exercícios-aula3/1.0-exercicio-filmes/1.0-exercicio-filmes-fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Senai_Sprint1_BD\Exercícios-aula3\1.0-exercicio-filmes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Desenvolvimento de sistemas\Desenvolvimento de Sistemas\Banco de dados\Sprint 1\Exercícios-aula3\1.0-exercicio-filmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{242B48DC-CFD7-4EB3-8343-DCAB5071A464}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48696A4F-6BA3-443E-B109-95E200BC73B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" xr2:uid="{033F4F37-9E21-4683-B6C5-B04DB4B94341}"/>
+    <workbookView xWindow="3390" yWindow="7230" windowWidth="11985" windowHeight="11835" xr2:uid="{033F4F37-9E21-4683-B6C5-B04DB4B94341}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>filme</t>
   </si>
@@ -223,21 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,6 +251,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -593,111 +593,111 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="15">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="9">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="9">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="9">
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="10">
+      <c r="F7" s="5">
         <v>4</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
